--- a/legislator/property/output/normal/李俊俋_2012-04-24_財產申報表_tmp16861.xlsx
+++ b/legislator/property/output/normal/李俊俋_2012-04-24_財產申報表_tmp16861.xlsx
@@ -20,9 +20,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="73">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>嘉義市長竹段00060002地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>李俊俋</t>
+  </si>
+  <si>
+    <t>96年02月09日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-24</t>
+  </si>
+  <si>
+    <t>tmp16861</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,31 +112,13 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>嘉義市長竹段0006-0002地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>李俊俋</t>
-  </si>
-  <si>
-    <t>96年02月 09日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>嘉義市長竹段01946-000建號</t>
+    <t>嘉義市長竹段01946000建號</t>
   </si>
   <si>
     <t>貝賣</t>
   </si>
   <si>
-    <t>廠’牌型號</t>
+    <t>廠牌型號</t>
   </si>
   <si>
     <t>汽缸容量</t>
@@ -76,10 +127,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>MAZDA 3</t>
-  </si>
-  <si>
-    <t>MAZDA MPV</t>
+    <t>MAZDA3</t>
+  </si>
+  <si>
+    <t>MAZDAMPV</t>
   </si>
   <si>
     <t>三菱DELICA</t>
@@ -94,10 +145,10 @@
     <t>93年05月</t>
   </si>
   <si>
-    <t>100 年 09 月</t>
-  </si>
-  <si>
-    <t>ma-as 貝賣</t>
+    <t>100年09月</t>
+  </si>
+  <si>
+    <t>maas貝賣</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -112,7 +163,7 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司台 大郵局</t>
+    <t>中華郵政股份有限公司台大郵局</t>
   </si>
   <si>
     <t>第一商業銀行新西分行</t>
@@ -121,10 +172,10 @@
     <t>臺灣銀行寶慶</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司嘉 義中山路郵局</t>
-  </si>
-  <si>
-    <t>玉山商業銀行'</t>
+    <t>中華郵政股份有限公司嘉義中山路郵局</t>
+  </si>
+  <si>
+    <t>玉山商業銀行</t>
   </si>
   <si>
     <t>第一商業銀行嘉義分行</t>
@@ -175,10 +226,10 @@
     <t>產種類</t>
   </si>
   <si>
-    <t>項 /</t>
-  </si>
-  <si>
-    <t>件|所 有 人</t>
+    <t>項</t>
+  </si>
+  <si>
+    <t>件|所有人</t>
   </si>
   <si>
     <t>價</t>
@@ -202,7 +253,7 @@
     <t>富邦人壽</t>
   </si>
   <si>
-    <t>富邦人壽心得意利率變動型 年金保險</t>
+    <t>富邦人壽心得意利率變動型年金保險</t>
   </si>
   <si>
     <t>20年期</t>
@@ -229,10 +280,7 @@
     <t>第一商業銀行</t>
   </si>
   <si>
-    <t>玉山商業銀行</t>
-  </si>
-  <si>
-    <t>96年02月 12日</t>
+    <t>96年02月12日</t>
   </si>
   <si>
     <t>101年04月</t>
@@ -597,13 +645,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,31 +673,73 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2">
         <v>8000000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1738</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -667,25 +757,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -693,22 +783,22 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
         <v>208.81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2">
         <v>3000000</v>
@@ -729,22 +819,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -752,19 +842,19 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2">
         <v>600000</v>
@@ -775,19 +865,19 @@
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
         <v>3000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2">
         <v>1300000</v>
@@ -798,19 +888,19 @@
         <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2">
         <v>2350</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2">
         <v>150000</v>
@@ -831,19 +921,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -851,16 +941,16 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2">
         <v>228059</v>
@@ -871,16 +961,16 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2">
         <v>105003</v>
@@ -891,16 +981,16 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2">
         <v>2115</v>
@@ -911,16 +1001,16 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2">
         <v>252037</v>
@@ -931,16 +1021,16 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2">
         <v>261223</v>
@@ -951,16 +1041,16 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2">
         <v>5254</v>
@@ -971,16 +1061,16 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F8" s="2">
         <v>94</v>
@@ -991,16 +1081,16 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2">
         <v>96</v>
@@ -1011,16 +1101,16 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F10" s="2">
         <v>591664</v>
@@ -1031,16 +1121,16 @@
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F11" s="2">
         <v>108567</v>
@@ -1051,16 +1141,16 @@
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2">
         <v>159443</v>
@@ -1081,22 +1171,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1104,22 +1194,22 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1137,16 +1227,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1154,16 +1244,16 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1181,22 +1271,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1204,22 +1294,22 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2">
         <v>7184552</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1227,22 +1317,22 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2">
         <v>4500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李俊俋_2012-04-24_財產申報表_tmp16861.xlsx
+++ b/legislator/property/output/normal/李俊俋_2012-04-24_財產申報表_tmp16861.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
   <si>
     <t>name</t>
   </si>
@@ -64,7 +64,13 @@
     <t>index</t>
   </si>
   <si>
-    <t>嘉義市長竹段00060002地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>嘉義市長竹段01946000建號</t>
   </si>
   <si>
     <t>全部</t>
@@ -76,72 +82,27 @@
     <t>96年02月09日</t>
   </si>
   <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>MAZDA3</t>
+  </si>
+  <si>
+    <t>陳佳慧</t>
+  </si>
+  <si>
+    <t>98年09月</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-24</t>
-  </si>
-  <si>
-    <t>tmp16861</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>嘉義市長竹段01946000建號</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>MAZDA3</t>
-  </si>
-  <si>
     <t>MAZDAMPV</t>
   </si>
   <si>
     <t>三菱DELICA</t>
   </si>
   <si>
-    <t>陳佳慧</t>
-  </si>
-  <si>
-    <t>98年09月</t>
-  </si>
-  <si>
     <t>93年05月</t>
   </si>
   <si>
@@ -151,21 +112,15 @@
     <t>maas貝賣</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>中華郵政股份有限公司台大郵局</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>第一商業銀行新西分行</t>
   </si>
   <si>
@@ -190,36 +145,12 @@
     <t>華南商業銀行台大辦事處</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>李〇平</t>
   </si>
   <si>
     <t>李〇立</t>
   </si>
   <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
     <t>財</t>
   </si>
   <si>
@@ -238,18 +169,6 @@
     <t>額</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>富邦人壽</t>
   </si>
   <si>
@@ -259,21 +178,6 @@
     <t>20年期</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
@@ -283,10 +187,10 @@
     <t>96年02月12日</t>
   </si>
   <si>
+    <t>房貸</t>
+  </si>
+  <si>
     <t>101年04月</t>
-  </si>
-  <si>
-    <t>房貸</t>
   </si>
 </sst>
 </file>
@@ -645,13 +549,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="B1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,51 +598,10 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2">
-        <v>123</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2">
-        <v>8000000</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1738</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="2">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -749,58 +612,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="C1" s="1">
+        <v>208.81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2">
-        <v>208.81</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="H1" s="1">
         <v>3000000</v>
       </c>
     </row>
@@ -811,7 +648,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -819,90 +656,67 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2000</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="G1" s="1">
+        <v>600000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2">
-        <v>600000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2">
-        <v>3000</v>
+        <v>2350</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2">
-        <v>1300000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>32</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2350</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2">
         <v>150000</v>
       </c>
     </row>
@@ -913,7 +727,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -921,238 +735,218 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
+      </c>
+      <c r="F1" s="1">
+        <v>228059</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2">
-        <v>228059</v>
+        <v>105003</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2">
-        <v>105003</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2">
-        <v>2115</v>
+        <v>252037</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2">
-        <v>252037</v>
+        <v>261223</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2">
-        <v>261223</v>
+        <v>5254</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2">
-        <v>5254</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2">
-        <v>96</v>
+        <v>591664</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2">
-        <v>591664</v>
+        <v>108567</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2">
-        <v>108567</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>56</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="2">
         <v>159443</v>
       </c>
     </row>
@@ -1162,6 +956,66 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1171,168 +1025,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
+      </c>
+      <c r="E1" s="1">
+        <v>7184552</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>90</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>100</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="2">
-        <v>7184552</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>101</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4500000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李俊俋_2012-04-24_財產申報表_tmp16861.xlsx
+++ b/legislator/property/output/normal/李俊俋_2012-04-24_財產申報表_tmp16861.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -70,18 +70,36 @@
     <t>total</t>
   </si>
   <si>
+    <t>嘉義市長竹段00060002地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>李俊俋</t>
+  </si>
+  <si>
+    <t>96年02月09日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-24</t>
+  </si>
+  <si>
+    <t>tmp16861</t>
+  </si>
+  <si>
     <t>嘉義市長竹段01946000建號</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>李俊俋</t>
-  </si>
-  <si>
-    <t>96年02月09日</t>
-  </si>
-  <si>
     <t>貝賣</t>
   </si>
   <si>
@@ -92,9 +110,6 @@
   </si>
   <si>
     <t>98年09月</t>
-  </si>
-  <si>
-    <t>買賣</t>
   </si>
   <si>
     <t>MAZDAMPV</t>
@@ -549,13 +564,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,6 +618,59 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>123</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2">
+        <v>8000000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1738</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -612,33 +680,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2">
         <v>208.81</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1738</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2">
         <v>20</v>
       </c>
-      <c r="H1" s="1">
-        <v>3000000</v>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>208.81</v>
       </c>
     </row>
   </sheetData>
@@ -647,6 +795,458 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2350</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2">
+        <v>150000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1">
+        <v>228059</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2">
+        <v>228059</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2">
+        <v>105003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2">
+        <v>252037</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2">
+        <v>261223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="2">
+        <v>591664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2">
+        <v>108567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>56</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2">
+        <v>159443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>90</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -656,414 +1256,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2000</v>
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>58</v>
+      </c>
+      <c r="E1" s="1">
+        <v>7184552</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1">
-        <v>600000</v>
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3000</v>
+        <v>57</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="E2" s="2">
+        <v>7184552</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1300000</v>
+        <v>59</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2350</v>
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2">
-        <v>150000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1">
-        <v>228059</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2">
-        <v>105003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>49</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2">
-        <v>252037</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>50</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2">
-        <v>261223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>51</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2">
-        <v>5254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>52</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>53</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>54</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="2">
-        <v>591664</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>55</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="2">
-        <v>108567</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>56</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="2">
-        <v>159443</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="1">
-        <v>7184552</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>101</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="2">
-        <v>4500000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李俊俋_2012-04-24_財產申報表_tmp16861.xlsx
+++ b/legislator/property/output/normal/李俊俋_2012-04-24_財產申報表_tmp16861.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -103,19 +103,22 @@
     <t>貝賣</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>MAZDA3</t>
   </si>
   <si>
+    <t>MAZDAMPV</t>
+  </si>
+  <si>
+    <t>三菱DELICA</t>
+  </si>
+  <si>
     <t>陳佳慧</t>
   </si>
   <si>
     <t>98年09月</t>
-  </si>
-  <si>
-    <t>MAZDAMPV</t>
-  </si>
-  <si>
-    <t>三菱DELICA</t>
   </si>
   <si>
     <t>93年05月</t>
@@ -796,47 +799,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1">
-        <v>2000</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
@@ -844,36 +868,78 @@
       <c r="G2" s="2">
         <v>600000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1738</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2">
         <v>3000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2">
         <v>1300000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1738</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2">
         <v>2350</v>
@@ -882,13 +948,34 @@
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="2">
         <v>150000</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1738</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -906,13 +993,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -926,13 +1013,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -946,13 +1033,13 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -966,13 +1053,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -986,16 +1073,16 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2">
         <v>252037</v>
@@ -1006,16 +1093,16 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2">
         <v>261223</v>
@@ -1026,16 +1113,16 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2">
         <v>5254</v>
@@ -1046,16 +1133,16 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2">
         <v>94</v>
@@ -1066,16 +1153,16 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2">
         <v>96</v>
@@ -1086,16 +1173,16 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2">
         <v>591664</v>
@@ -1106,16 +1193,16 @@
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2">
         <v>108567</v>
@@ -1126,13 +1213,13 @@
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1156,22 +1243,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1179,22 +1266,22 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1212,16 +1299,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1229,16 +1316,16 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1256,22 +1343,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1">
         <v>7184552</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1279,22 +1366,22 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2">
         <v>7184552</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1302,22 +1389,22 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2">
         <v>4500000</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李俊俋_2012-04-24_財產申報表_tmp16861.xlsx
+++ b/legislator/property/output/normal/李俊俋_2012-04-24_財產申報表_tmp16861.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -103,6 +103,9 @@
     <t>貝賣</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -128,6 +131,9 @@
   </si>
   <si>
     <t>maas貝賣</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>中華郵政股份有限公司台大郵局</t>
@@ -765,7 +771,7 @@
         <v>3000000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>22</v>
@@ -810,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -851,16 +857,16 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
@@ -869,7 +875,7 @@
         <v>600000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -895,25 +901,25 @@
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2">
         <v>3000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2">
         <v>1300000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>22</v>
@@ -939,7 +945,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2">
         <v>2350</v>
@@ -948,7 +954,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>26</v>
@@ -957,7 +963,7 @@
         <v>150000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>22</v>
@@ -993,13 +999,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -1013,13 +1019,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -1033,13 +1039,13 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -1053,13 +1059,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -1073,16 +1079,16 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2">
         <v>252037</v>
@@ -1093,16 +1099,16 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2">
         <v>261223</v>
@@ -1113,16 +1119,16 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2">
         <v>5254</v>
@@ -1133,16 +1139,16 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2">
         <v>94</v>
@@ -1153,16 +1159,16 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2">
         <v>96</v>
@@ -1173,16 +1179,16 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F10" s="2">
         <v>591664</v>
@@ -1193,16 +1199,16 @@
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2">
         <v>108567</v>
@@ -1213,13 +1219,13 @@
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1243,22 +1249,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1266,22 +1272,22 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1299,16 +1305,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1316,16 +1322,16 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1343,22 +1349,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1">
         <v>7184552</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1366,22 +1372,22 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2">
         <v>7184552</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1389,22 +1395,22 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2">
         <v>4500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李俊俋_2012-04-24_財產申報表_tmp16861.xlsx
+++ b/legislator/property/output/normal/李俊俋_2012-04-24_財產申報表_tmp16861.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -136,43 +136,55 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>中華郵政股份有限公司台大郵局</t>
   </si>
   <si>
+    <t>第一商業銀行新西分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行寶慶</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司嘉義中山路郵局</t>
+  </si>
+  <si>
+    <t>玉山商業銀行</t>
+  </si>
+  <si>
+    <t>第一商業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行信義分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行嘉南分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行台大辦事處</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>第一商業銀行新西分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行寶慶</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司嘉義中山路郵局</t>
-  </si>
-  <si>
-    <t>玉山商業銀行</t>
-  </si>
-  <si>
-    <t>第一商業銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行信義分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行嘉南分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行台大辦事處</t>
-  </si>
-  <si>
     <t>李〇平</t>
   </si>
   <si>
     <t>李〇立</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>財</t>
@@ -991,13 +1003,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1008,24 +1020,45 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1">
-        <v>228059</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -1033,19 +1066,40 @@
       <c r="F2" s="2">
         <v>228059</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1738</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -1053,19 +1107,40 @@
       <c r="F3" s="2">
         <v>105003</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1738</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -1073,19 +1148,40 @@
       <c r="F4" s="2">
         <v>2115</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1738</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
@@ -1093,19 +1189,40 @@
       <c r="F5" s="2">
         <v>252037</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1738</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -1113,19 +1230,40 @@
       <c r="F6" s="2">
         <v>261223</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1738</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
@@ -1133,19 +1271,40 @@
       <c r="F7" s="2">
         <v>5254</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1738</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -1153,19 +1312,40 @@
       <c r="F8" s="2">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1738</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -1173,65 +1353,149 @@
       <c r="F9" s="2">
         <v>96</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1738</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F10" s="2">
         <v>591664</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1738</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F11" s="2">
         <v>108567</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1738</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="2">
         <v>159443</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1738</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="2">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1249,22 +1513,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1272,22 +1536,22 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1305,16 +1569,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1322,16 +1586,16 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1349,22 +1613,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1">
         <v>7184552</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1372,22 +1636,22 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2">
         <v>7184552</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1395,22 +1659,22 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2">
         <v>4500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李俊俋_2012-04-24_財產申報表_tmp16861.xlsx
+++ b/legislator/property/output/normal/李俊俋_2012-04-24_財產申報表_tmp16861.xlsx
@@ -11,16 +11,15 @@
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
-    <sheet name="其他有價證券" sheetId="5" r:id="rId5"/>
-    <sheet name="保險" sheetId="6" r:id="rId6"/>
-    <sheet name="債務" sheetId="7" r:id="rId7"/>
+    <sheet name="保險" sheetId="5" r:id="rId5"/>
+    <sheet name="債務" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -185,24 +184,6 @@
   </si>
   <si>
     <t>deposit</t>
-  </si>
-  <si>
-    <t>財</t>
-  </si>
-  <si>
-    <t>產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件|所有人</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -1505,62 +1486,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>83</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1569,33 +1494,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1613,53 +1538,53 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1">
         <v>7184552</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2">
         <v>7184552</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
@@ -1671,10 +1596,10 @@
         <v>4500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李俊俋_2012-04-24_財產申報表_tmp16861.xlsx
+++ b/legislator/property/output/normal/李俊俋_2012-04-24_財產申報表_tmp16861.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -186,13 +186,22 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
     <t>富邦人壽心得意利率變動型年金保險</t>
   </si>
   <si>
-    <t>20年期</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -204,10 +213,13 @@
     <t>96年02月12日</t>
   </si>
   <si>
+    <t>101年04月</t>
+  </si>
+  <si>
     <t>房貸</t>
   </si>
   <si>
-    <t>101年04月</t>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -1486,41 +1498,77 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1738</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1530,61 +1578,103 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="1">
-        <v>7184552</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2">
         <v>7184552</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>65</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1738</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
@@ -1596,10 +1686,31 @@
         <v>4500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1738</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="2">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
